--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_24.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,133 +488,132 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_263</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_268</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1066176470588235</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_96</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'A']]</t>
+          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(32.874217, 50.277573)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(6.09, 13.659705)]</t>
+          <t>[('0:01:06.880000', '0:01:14.940000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:7CZiDzGVjUssMSOXrDNYHL</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
-        </is>
-      </c>
+          <t>[('0:01:02.200000', '0:01:04.500000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_174</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5555555555555556</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(10.94, 16.32)]</t>
+          <t>[['D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(107.4, 126.86)]</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:01.150000', '0:00:05.734000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>schubert-winterreise_188</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+      <c r="D4" t="n">
+        <v>0.2461538461538462</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(112.14, 117.46)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(120.4, 127.2)]</t>
+          <t>[('0:01:15.560000', '0:01:35.680000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:02:01.740000', '0:02:03.780000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
@@ -618,585 +622,560 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(0.38, 142.38)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(0.36, 122.64)]</t>
+          <t>[('0:01:57.680000', '0:01:59.480000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_95</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_63</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(41.58, 43.48)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(1.92, 8.32)]</t>
+          <t>[('0:00:13.400000', '0:01:28.140000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:17.200000', '0:01:42.900000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1319148936170213</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_127</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4714285714285714</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(3.988594, 7.754783)]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(111.92, 115.36)]</t>
+          <t>[('0:02:18.800000', '0:02:25.800000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:01.014823', '0:00:13.657911')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_165</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.07334525939177103</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(122.78, 125.0)]</t>
+          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(70.38, 90.98)]</t>
+          <t>[('0:00:34.860000', '0:00:39.700000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:29.500000', '0:00:31.640000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_282</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.146875</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'E'], ['D', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb', 'F'], ['Eb', 'F', 'Bb']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(92.74687, 96.589773), (3.605464, 10.96619)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(29.719863, 35.722222), (44.917324, 48.272607)]</t>
+          <t>[('0:00:39.020000', '0:00:57.200000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
+          <t>[('0:01:06.920000', '0:01:24.540000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj', 'C:min/G']]</t>
-        </is>
+          <t>schubert-winterreise_213</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(110.32, 122.84)]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(38.62, 46.84)]</t>
+          <t>[('0:01:33.260000', '0:01:42.460000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:01:34.060000', '0:01:45.580000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.06153846153846154</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(11.62, 15.6)]</t>
+          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(7.54, 16.72)]</t>
+          <t>[('0:01:37.880000', '0:01:48.980000'), ('0:00:47.580000', '0:00:50.040000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:25.480000', '0:00:32.760000'), ('0:01:14.800000', '0:01:21.060000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(111.28, 124.16)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(39.8, 48.28)]</t>
+          <t>[('0:01:56.700000', '0:02:02.320000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:01:59.320000', '0:02:04.320000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.08684863523573201</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_60</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_210</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(25.48, 32.76)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[('0:00:06.300000', '0:01:59.400000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
+          <t>[('0:00:07.140000', '0:01:47.600000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>isophonics_263</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>isophonics_22</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.07916666666666666</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['E', 'A', 'A']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(76.56, 94.12)]</t>
+          <t>[['F#', 'B', 'B/7']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(20.56, 26.4)]</t>
+          <t>[('0:00:32.874217', '0:00:50.277573')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:04.940612', '0:00:06.577619')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:7CZiDzGVjUssMSOXrDNYHL</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_125</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_159</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(16.84, 21.54)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(68.64, 83.84)]</t>
+          <t>[('0:00:48.440000', '0:00:53.480000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:47.340000', '0:00:52.740000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'D#:min/A#', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_5</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min', 'G:min', 'A:hdim7/C', 'D:7', 'G:min', 'F#:dim7', 'G:min', 'F#:dim7', 'D:maj/A', 'G:min/A#', 'F:maj/A', 'D#:maj/G', 'A#:maj/F', 'D#:maj', 'A#:maj/F', 'F:7', 'A#:maj', 'D#:maj/G', 'D:min/A', 'A:7', 'D:min', 'C#:dim7/E', 'D:min/F', 'D:(3,5,b7,b9)/F#', 'G:min', 'G:(3,5,b7,b9)', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'F#:dim7', 'A:hdim7/C', 'F#:dim7', 'A:hdim7/C', 'D:(3,5,b7,b9)', 'G:min', 'G:(3,5,b7,b9)/B', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'G:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(30.24, 38.5), (84.62, 91.74)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(99.6, 111.62), (46.52, 48.94)]</t>
+          <t>[('0:00:09.180000', '0:01:01')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:10.940000', '0:01:05.780000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_62</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(40.12, 47.88)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(4.86, 7.56)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
